--- a/20210329_專案即時回覆系統_資料庫結構_V1.4_Wade.xlsx
+++ b/20210329_專案即時回覆系統_資料庫結構_V1.4_Wade.xlsx
@@ -1160,6 +1160,36 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1168,36 +1198,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1508,7 +1508,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="61" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" style="58" customWidth="1"/>
     <col min="2" max="2" width="25.44140625" style="8" customWidth="1"/>
     <col min="3" max="3" width="24.88671875" style="8" customWidth="1"/>
     <col min="4" max="4" width="12.77734375" style="8" customWidth="1"/>
@@ -1540,18 +1540,18 @@
       <c r="F1" s="13"/>
       <c r="G1" s="28"/>
       <c r="H1" s="14"/>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="53" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
@@ -1587,7 +1587,7 @@
       <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="55" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="17"/>
@@ -1602,7 +1602,7 @@
       <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="59"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1620,7 +1620,7 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -1644,14 +1644,14 @@
       <c r="H7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="64"/>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61">
+      <c r="A8" s="58">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1679,7 +1679,7 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62">
+      <c r="A9" s="59">
         <v>2</v>
       </c>
       <c r="B9" s="43" t="s">
@@ -1704,7 +1704,7 @@
       <c r="K9" s="42"/>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="62">
+      <c r="A10" s="59">
         <v>3</v>
       </c>
       <c r="B10" s="43" t="s">
@@ -1729,7 +1729,7 @@
       <c r="K10" s="42"/>
     </row>
     <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62">
+      <c r="A11" s="59">
         <v>4</v>
       </c>
       <c r="B11" s="43" t="s">
@@ -1754,7 +1754,7 @@
       <c r="K11" s="42"/>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="62">
+      <c r="A12" s="59">
         <v>5</v>
       </c>
       <c r="B12" s="43" t="s">
@@ -1779,7 +1779,7 @@
       <c r="K12" s="42"/>
     </row>
     <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="62">
+      <c r="A13" s="59">
         <v>6</v>
       </c>
       <c r="B13" s="43" t="s">
@@ -1804,7 +1804,7 @@
       <c r="K13" s="42"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="62">
+      <c r="A14" s="59">
         <v>7</v>
       </c>
       <c r="B14" s="43" t="s">
@@ -1829,7 +1829,7 @@
       <c r="K14" s="42"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="62">
+      <c r="A15" s="59">
         <v>8</v>
       </c>
       <c r="B15" s="43" t="s">
@@ -1854,7 +1854,7 @@
       <c r="K15" s="42"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="62">
+      <c r="A16" s="59">
         <v>9</v>
       </c>
       <c r="B16" s="45" t="s">
@@ -1881,7 +1881,7 @@
       <c r="K16" s="42"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="63">
+      <c r="A17" s="60">
         <v>10</v>
       </c>
       <c r="B17" s="47" t="s">
@@ -1904,7 +1904,7 @@
       <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="64">
+      <c r="A18" s="61">
         <v>11</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -1929,7 +1929,7 @@
       <c r="K18" s="16"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="64">
+      <c r="A19" s="61">
         <v>12</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -1952,7 +1952,7 @@
       <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="64">
+      <c r="A20" s="61">
         <v>13</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -1979,7 +1979,7 @@
       <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="64">
+      <c r="A21" s="61">
         <v>14</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -2008,7 +2008,7 @@
       <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="64">
+      <c r="A22" s="61">
         <v>15</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -2035,7 +2035,7 @@
       <c r="K22" s="16"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="64">
+      <c r="A23" s="61">
         <v>16</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -2062,7 +2062,7 @@
       <c r="K23" s="16"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="64">
+      <c r="A24" s="61">
         <v>17</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -2087,7 +2087,7 @@
       <c r="K24" s="16"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="64">
+      <c r="A25" s="61">
         <v>18</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -2125,8 +2125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2267,11 +2267,11 @@
       <c r="H7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="64"/>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -2348,9 +2348,7 @@
       <c r="G10" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="43">
-        <v>1</v>
-      </c>
+      <c r="H10" s="43"/>
       <c r="I10" s="34"/>
       <c r="J10" s="46"/>
       <c r="K10" s="42"/>
@@ -2826,11 +2824,11 @@
       <c r="H7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="64"/>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -3390,11 +3388,11 @@
       <c r="H7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="64"/>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">

--- a/20210329_專案即時回覆系統_資料庫結構_V1.4_Wade.xlsx
+++ b/20210329_專案即時回覆系統_資料庫結構_V1.4_Wade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="48" windowWidth="22056" windowHeight="9408" tabRatio="642" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="48" windowWidth="22056" windowHeight="9408" tabRatio="642"/>
   </bookViews>
   <sheets>
     <sheet name="使用者Users" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="120">
   <si>
     <t>エンティティ名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1502,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2125,8 +2125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2328,28 +2328,28 @@
       <c r="J9" s="46"/>
       <c r="K9" s="42"/>
     </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>3</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>26</v>
+        <v>40</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>35</v>
       </c>
       <c r="E10" s="43">
-        <v>255</v>
-      </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="36" t="s">
-        <v>19</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F10" s="43">
+        <v>0</v>
+      </c>
+      <c r="G10" s="44"/>
       <c r="H10" s="43"/>
-      <c r="I10" s="34"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="46"/>
       <c r="K10" s="42"/>
     </row>
@@ -2358,52 +2358,50 @@
         <v>4</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="E11" s="43">
-        <v>50</v>
-      </c>
-      <c r="F11" s="43">
-        <v>0</v>
-      </c>
-      <c r="G11" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="F11" s="43"/>
+      <c r="G11" s="36" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="43"/>
-      <c r="I11" s="45"/>
+      <c r="I11" s="34"/>
       <c r="J11" s="46"/>
       <c r="K11" s="42"/>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42">
+      <c r="A12" s="3">
         <v>5</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E12" s="43">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="F12" s="43">
         <v>0</v>
       </c>
-      <c r="G12" s="44"/>
+      <c r="G12" s="32" t="s">
+        <v>19</v>
+      </c>
       <c r="H12" s="43"/>
-      <c r="I12" s="45" t="s">
-        <v>86</v>
-      </c>
+      <c r="I12" s="45"/>
       <c r="J12" s="46"/>
       <c r="K12" s="42"/>
     </row>
@@ -2411,14 +2409,14 @@
       <c r="A13" s="42">
         <v>6</v>
       </c>
-      <c r="B13" s="38" t="s">
-        <v>79</v>
+      <c r="B13" s="43" t="s">
+        <v>60</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>72</v>
+        <v>85</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="E13" s="43">
         <v>255</v>
@@ -2429,23 +2427,23 @@
       <c r="G13" s="44"/>
       <c r="H13" s="43"/>
       <c r="I13" s="45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J13" s="46"/>
       <c r="K13" s="42"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="42">
+    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>7</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>81</v>
+      <c r="B14" s="38" t="s">
+        <v>79</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>54</v>
+        <v>74</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>72</v>
       </c>
       <c r="E14" s="43">
         <v>255</v>
@@ -2453,11 +2451,11 @@
       <c r="F14" s="43">
         <v>0</v>
       </c>
-      <c r="G14" s="39" t="s">
-        <v>19</v>
-      </c>
+      <c r="G14" s="44"/>
       <c r="H14" s="43"/>
-      <c r="I14" s="45"/>
+      <c r="I14" s="45" t="s">
+        <v>88</v>
+      </c>
       <c r="J14" s="46"/>
       <c r="K14" s="42"/>
     </row>
@@ -2465,22 +2463,22 @@
       <c r="A15" s="42">
         <v>8</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>62</v>
+      <c r="B15" s="35" t="s">
+        <v>81</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>54</v>
       </c>
       <c r="E15" s="43">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F15" s="43">
         <v>0</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="39" t="s">
         <v>19</v>
       </c>
       <c r="H15" s="43"/>
@@ -2489,25 +2487,25 @@
       <c r="K15" s="42"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="42">
+      <c r="A16" s="3">
         <v>9</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>32</v>
+        <v>52</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>54</v>
       </c>
       <c r="E16" s="43">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F16" s="43">
         <v>0</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="32" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="43"/>
@@ -2516,62 +2514,76 @@
       <c r="K16" s="42"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="37">
+      <c r="A17" s="42">
         <v>10</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="43">
+        <v>50</v>
+      </c>
+      <c r="F17" s="43">
+        <v>0</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="43"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="42"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>11</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C18" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D18" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="38">
-        <v>0</v>
-      </c>
-      <c r="F17" s="38">
-        <v>0</v>
-      </c>
-      <c r="G17" s="39"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="37"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
-        <v>11</v>
-      </c>
-      <c r="B18" s="11" t="s">
+      <c r="E18" s="38">
+        <v>0</v>
+      </c>
+      <c r="F18" s="38">
+        <v>0</v>
+      </c>
+      <c r="G18" s="39"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="37"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="42">
+        <v>12</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C19" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D19" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E19" s="35">
         <v>50</v>
       </c>
-      <c r="F18" s="35">
-        <v>0</v>
-      </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
+      <c r="F19" s="35">
+        <v>0</v>
+      </c>
       <c r="G19" s="36"/>
       <c r="H19" s="35"/>
       <c r="I19" s="15"/>
@@ -2682,7 +2694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C19" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>

--- a/20210329_專案即時回覆系統_資料庫結構_V1.4_Wade.xlsx
+++ b/20210329_專案即時回覆系統_資料庫結構_V1.4_Wade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="48" windowWidth="22056" windowHeight="9408" tabRatio="642"/>
+    <workbookView xWindow="480" yWindow="48" windowWidth="22056" windowHeight="9408" tabRatio="642" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="使用者Users" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="125">
   <si>
     <t>エンティティ名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -462,6 +462,25 @@
   </si>
   <si>
     <t>PMの言葉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最初はFalse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1502,7 +1521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
@@ -2694,8 +2713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3077,116 +3096,129 @@
       <c r="K16" s="42"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="37">
+      <c r="A17" s="42">
         <v>10</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="42">
+        <v>11</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C18" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D18" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="43">
-        <v>0</v>
-      </c>
-      <c r="F17" s="43">
-        <v>0</v>
-      </c>
-      <c r="G17" s="32" t="s">
+      <c r="E18" s="43">
+        <v>0</v>
+      </c>
+      <c r="F18" s="43">
+        <v>0</v>
+      </c>
+      <c r="G18" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="43"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="37"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
-        <v>11</v>
-      </c>
-      <c r="B18" s="11" t="s">
+      <c r="H18" s="43"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="37"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="42">
+        <v>12</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C19" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D19" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E19" s="43">
         <v>50</v>
       </c>
-      <c r="F18" s="43">
-        <v>0</v>
-      </c>
-      <c r="G18" s="44" t="s">
+      <c r="F19" s="43">
+        <v>0</v>
+      </c>
+      <c r="G19" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
-        <v>12</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="38">
-        <v>0</v>
-      </c>
-      <c r="F19" s="38">
-        <v>0</v>
-      </c>
-      <c r="G19" s="39"/>
-      <c r="H19" s="38"/>
+      <c r="H19" s="43"/>
       <c r="I19" s="15"/>
       <c r="J19" s="11"/>
       <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="16">
+      <c r="A20" s="42">
         <v>13</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>77</v>
+        <v>68</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>76</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="35">
-        <v>50</v>
-      </c>
-      <c r="F20" s="35">
-        <v>0</v>
-      </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="35"/>
+        <v>54</v>
+      </c>
+      <c r="E20" s="38">
+        <v>0</v>
+      </c>
+      <c r="F20" s="38">
+        <v>0</v>
+      </c>
+      <c r="G20" s="39"/>
+      <c r="H20" s="38"/>
       <c r="I20" s="15"/>
       <c r="J20" s="11"/>
       <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
+      <c r="A21" s="42">
+        <v>14</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="35">
+        <v>50</v>
+      </c>
+      <c r="F21" s="35">
+        <v>0</v>
+      </c>
       <c r="G21" s="36"/>
       <c r="H21" s="35"/>
       <c r="I21" s="15"/>

--- a/20210329_專案即時回覆系統_資料庫結構_V1.4_Wade.xlsx
+++ b/20210329_專案即時回覆系統_資料庫結構_V1.4_Wade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="48" windowWidth="22056" windowHeight="9408" tabRatio="642" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="48" windowWidth="22056" windowHeight="9408" tabRatio="642"/>
   </bookViews>
   <sheets>
     <sheet name="使用者Users" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="112">
   <si>
     <t>エンティティ名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,9 +192,6 @@
   </si>
   <si>
     <t>TeamName</t>
-  </si>
-  <si>
-    <t>TeamName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -208,10 +205,6 @@
     <t>WorkID</t>
   </si>
   <si>
-    <t>WorkID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Privilege</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,9 +262,6 @@
   </si>
   <si>
     <t>チームネーム</t>
-  </si>
-  <si>
-    <t>チームネーム</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -291,16 +281,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FLOAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ProjectName</t>
   </si>
   <si>
-    <t>Schedule</t>
-  </si>
-  <si>
     <t>DeadLine</t>
   </si>
   <si>
@@ -314,10 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>プロジェクト進捗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>デッドライン</t>
   </si>
   <si>
@@ -325,10 +304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[Work]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WorkDescription</t>
   </si>
   <si>
@@ -336,26 +311,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WorkID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>","を利用して、Works表の中のWorkIDを連結する</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpendTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Works表の中のSpendTime数/総ワーク数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>","を利用して、Works表の中のWorkIDを連結する</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">U:User  L:Leader  M:Manager  J:Judges </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -375,10 +330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>かかる時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ファイルパス</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -391,10 +342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[DeadLine]-[UpdateTime]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Works</t>
   </si>
   <si>
@@ -481,6 +428,10 @@
   </si>
   <si>
     <t>最初はFalse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,7 +473,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -988,41 +939,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1201,12 +1124,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1519,10 +1436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1581,7 +1498,7 @@
       <c r="G2" s="27"/>
       <c r="H2" s="5"/>
       <c r="I2" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="51">
@@ -1663,11 +1580,11 @@
       <c r="H7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="62" t="s">
+      <c r="I7" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="63"/>
-      <c r="K7" s="64"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="62"/>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="58">
@@ -1877,7 +1794,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="43" t="s">
         <v>42</v>
@@ -1900,11 +1817,11 @@
       <c r="K16" s="42"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="60">
+      <c r="A17" s="59">
         <v>10</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" s="38" t="s">
         <v>44</v>
@@ -1923,14 +1840,14 @@
       <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="61">
+      <c r="A18" s="59">
         <v>11</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="35" t="s">
         <v>32</v>
@@ -1948,14 +1865,14 @@
       <c r="K18" s="16"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="61">
+      <c r="A19" s="59">
         <v>12</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>26</v>
@@ -1971,47 +1888,49 @@
       <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="61">
+      <c r="A20" s="59">
         <v>13</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="35" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="35">
-        <v>255</v>
+        <v>16</v>
       </c>
       <c r="F20" s="35">
         <v>0</v>
       </c>
-      <c r="G20" s="36"/>
+      <c r="G20" s="36" t="s">
+        <v>19</v>
+      </c>
       <c r="H20" s="35"/>
       <c r="I20" s="15" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="61">
+      <c r="A21" s="59">
         <v>14</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="35" t="s">
         <v>51</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E21" s="35">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F21" s="35">
         <v>0</v>
@@ -2020,27 +1939,25 @@
         <v>19</v>
       </c>
       <c r="H21" s="35"/>
-      <c r="I21" s="15" t="s">
-        <v>90</v>
-      </c>
+      <c r="I21" s="15"/>
       <c r="J21" s="11"/>
       <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="61">
+      <c r="A22" s="59">
         <v>15</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E22" s="35">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F22" s="35">
         <v>0</v>
@@ -2054,47 +1971,45 @@
       <c r="K22" s="16"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="61">
+      <c r="A23" s="59">
         <v>16</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>56</v>
+        <v>65</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>71</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E23" s="35">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F23" s="35">
         <v>0</v>
       </c>
-      <c r="G23" s="36" t="s">
-        <v>19</v>
-      </c>
+      <c r="G23" s="36"/>
       <c r="H23" s="35"/>
       <c r="I23" s="15"/>
       <c r="J23" s="11"/>
       <c r="K23" s="16"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="61">
+      <c r="A24" s="59">
         <v>17</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>76</v>
+        <v>66</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>72</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E24" s="35">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F24" s="35">
         <v>0</v>
@@ -2104,31 +2019,6 @@
       <c r="I24" s="15"/>
       <c r="J24" s="11"/>
       <c r="K24" s="16"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="61">
-        <v>18</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="35">
-        <v>50</v>
-      </c>
-      <c r="F25" s="35">
-        <v>0</v>
-      </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2142,10 +2032,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A19"/>
+      <selection activeCell="A9" sqref="A9:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2195,7 +2085,7 @@
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -2205,7 +2095,7 @@
       <c r="G2" s="27"/>
       <c r="H2" s="5"/>
       <c r="I2" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="51">
@@ -2231,7 +2121,7 @@
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="18"/>
@@ -2286,21 +2176,21 @@
       <c r="H7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="62" t="s">
+      <c r="I7" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="63"/>
-      <c r="K7" s="64"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="62"/>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>26</v>
@@ -2325,10 +2215,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D9" s="38" t="s">
         <v>32</v>
@@ -2372,46 +2262,48 @@
       <c r="J10" s="46"/>
       <c r="K10" s="42"/>
     </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="42">
         <v>4</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>64</v>
+      <c r="B11" s="35" t="s">
+        <v>75</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>26</v>
+        <v>70</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>52</v>
       </c>
       <c r="E11" s="43">
         <v>255</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="36" t="s">
+      <c r="F11" s="43">
+        <v>0</v>
+      </c>
+      <c r="G11" s="39" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="43"/>
-      <c r="I11" s="34"/>
+      <c r="I11" s="45"/>
       <c r="J11" s="46"/>
       <c r="K11" s="42"/>
     </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>66</v>
+      <c r="B12" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>32</v>
+        <v>50</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>52</v>
       </c>
       <c r="E12" s="43">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F12" s="43">
         <v>0</v>
@@ -2424,185 +2316,129 @@
       <c r="J12" s="46"/>
       <c r="K12" s="42"/>
     </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="42">
         <v>6</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>60</v>
+      <c r="B13" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E13" s="43">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="F13" s="43">
         <v>0</v>
       </c>
-      <c r="G13" s="44"/>
+      <c r="G13" s="44" t="s">
+        <v>19</v>
+      </c>
       <c r="H13" s="43"/>
-      <c r="I13" s="45" t="s">
-        <v>86</v>
-      </c>
+      <c r="I13" s="45"/>
       <c r="J13" s="46"/>
       <c r="K13" s="42"/>
     </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>7</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="43">
-        <v>255</v>
-      </c>
-      <c r="F14" s="43">
-        <v>0</v>
-      </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="J14" s="46"/>
-      <c r="K14" s="42"/>
+      <c r="B14" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="38">
+        <v>0</v>
+      </c>
+      <c r="F14" s="38">
+        <v>0</v>
+      </c>
+      <c r="G14" s="39"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="37"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="42">
         <v>8</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>75</v>
+      <c r="B15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>72</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="43">
-        <v>255</v>
-      </c>
-      <c r="F15" s="43">
-        <v>0</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="43"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="42"/>
+        <v>32</v>
+      </c>
+      <c r="E15" s="35">
+        <v>50</v>
+      </c>
+      <c r="F15" s="35">
+        <v>0</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="16"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>9</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="43">
-        <v>0</v>
-      </c>
-      <c r="F16" s="43">
-        <v>0</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="42"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="16"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="42">
-        <v>10</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="43">
-        <v>50</v>
-      </c>
-      <c r="F17" s="43">
-        <v>0</v>
-      </c>
-      <c r="G17" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="43"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="42"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="16"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>11</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="38">
-        <v>0</v>
-      </c>
-      <c r="F18" s="38">
-        <v>0</v>
-      </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="37"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="42">
-        <v>12</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="35">
-        <v>50</v>
-      </c>
-      <c r="F19" s="35">
-        <v>0</v>
-      </c>
+      <c r="A19" s="16"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
       <c r="G19" s="36"/>
       <c r="H19" s="35"/>
       <c r="I19" s="15"/>
@@ -2635,70 +2471,18 @@
       <c r="J21" s="11"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="16"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="16"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="16"/>
-    </row>
-    <row r="29" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="3"/>
+    <row r="25" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2711,10 +2495,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2764,7 +2548,7 @@
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -2774,7 +2558,7 @@
       <c r="G2" s="27"/>
       <c r="H2" s="5"/>
       <c r="I2" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="51">
@@ -2800,7 +2584,7 @@
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="18"/>
@@ -2855,21 +2639,21 @@
       <c r="H7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="62" t="s">
+      <c r="I7" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="63"/>
-      <c r="K7" s="64"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="62"/>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>26</v>
@@ -2890,7 +2674,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="43" t="s">
         <v>43</v>
@@ -2915,10 +2699,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="43" t="s">
         <v>25</v>
@@ -2944,10 +2728,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D11" s="43" t="s">
         <v>32</v>
@@ -2971,16 +2755,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D12" s="43" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F12" s="43">
         <v>0</v>
@@ -2996,13 +2780,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13" s="43">
         <v>0</v>
@@ -3023,16 +2807,16 @@
         <v>7</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D14" s="43" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F14" s="43">
         <v>0</v>
@@ -3048,13 +2832,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E15" s="43">
         <v>0</v>
@@ -3072,105 +2856,103 @@
       <c r="A16" s="42">
         <v>9</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="43">
-        <v>0</v>
-      </c>
-      <c r="F16" s="43">
-        <v>0</v>
-      </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="J16" s="46"/>
-      <c r="K16" s="42"/>
+      <c r="B16" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="42">
         <v>10</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="8">
+      <c r="B17" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="43">
+        <v>0</v>
+      </c>
+      <c r="F17" s="43">
         <v>0</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>124</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H17" s="43"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="42">
         <v>11</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>32</v>
       </c>
       <c r="E18" s="43">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F18" s="43">
         <v>0</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="44" t="s">
         <v>19</v>
       </c>
       <c r="H18" s="43"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="37"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="42">
         <v>12</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="43">
-        <v>50</v>
-      </c>
-      <c r="F19" s="43">
-        <v>0</v>
-      </c>
-      <c r="G19" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="43"/>
+        <v>65</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="38">
+        <v>0</v>
+      </c>
+      <c r="F19" s="38">
+        <v>0</v>
+      </c>
+      <c r="G19" s="39"/>
+      <c r="H19" s="38"/>
       <c r="I19" s="15"/>
       <c r="J19" s="11"/>
       <c r="K19" s="16"/>
@@ -3180,45 +2962,33 @@
         <v>13</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>76</v>
+        <v>66</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>72</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="38">
-        <v>0</v>
-      </c>
-      <c r="F20" s="38">
-        <v>0</v>
-      </c>
-      <c r="G20" s="39"/>
-      <c r="H20" s="38"/>
+        <v>32</v>
+      </c>
+      <c r="E20" s="35">
+        <v>50</v>
+      </c>
+      <c r="F20" s="35">
+        <v>0</v>
+      </c>
+      <c r="G20" s="36"/>
+      <c r="H20" s="35"/>
       <c r="I20" s="15"/>
       <c r="J20" s="11"/>
       <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="42">
-        <v>14</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="35">
-        <v>50</v>
-      </c>
-      <c r="F21" s="35">
-        <v>0</v>
-      </c>
+      <c r="A21" s="16"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
       <c r="G21" s="36"/>
       <c r="H21" s="35"/>
       <c r="I21" s="15"/>
@@ -3263,19 +3033,6 @@
       <c r="I24" s="15"/>
       <c r="J24" s="11"/>
       <c r="K24" s="16"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3341,7 +3098,7 @@
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -3351,7 +3108,7 @@
       <c r="G2" s="27"/>
       <c r="H2" s="5"/>
       <c r="I2" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="51">
@@ -3377,7 +3134,7 @@
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="18"/>
@@ -3432,21 +3189,21 @@
       <c r="H7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="62" t="s">
+      <c r="I7" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="63"/>
-      <c r="K7" s="64"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="62"/>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>26</v>
@@ -3496,13 +3253,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E10" s="43">
         <v>0</v>
@@ -3521,13 +3278,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E11" s="43">
         <v>0</v>
@@ -3546,16 +3303,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D12" s="43" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F12" s="43">
         <v>0</v>
@@ -3571,13 +3328,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E13" s="43">
         <v>0</v>
@@ -3596,13 +3353,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E14" s="43">
         <v>0</v>
@@ -3621,16 +3378,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D15" s="43" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F15" s="43">
         <v>0</v>
@@ -3646,13 +3403,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E16" s="35">
         <v>0</v>
@@ -3673,10 +3430,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" s="35" t="s">
         <v>32</v>
@@ -3700,13 +3457,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E18" s="35">
         <v>0</v>
@@ -3725,10 +3482,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>32</v>

--- a/20210329_專案即時回覆系統_資料庫結構_V1.4_Wade.xlsx
+++ b/20210329_專案即時回覆系統_資料庫結構_V1.4_Wade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="48" windowWidth="22056" windowHeight="9408" tabRatio="642"/>
+    <workbookView xWindow="480" yWindow="48" windowWidth="22056" windowHeight="9408" tabRatio="642" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="使用者Users" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="ワークWorks" sheetId="6" r:id="rId3"/>
     <sheet name="成績Grades" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="112">
   <si>
     <t>エンティティ名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1438,7 +1438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -2032,10 +2032,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2293,49 +2293,48 @@
       <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="43">
-        <v>0</v>
-      </c>
-      <c r="F12" s="43">
+      <c r="B12" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
         <v>0</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="42"/>
+        <v>109</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="42">
         <v>6</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>32</v>
+        <v>50</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>52</v>
       </c>
       <c r="E13" s="43">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F13" s="43">
         <v>0</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="32" t="s">
         <v>19</v>
       </c>
       <c r="H13" s="43"/>
@@ -2348,76 +2347,77 @@
         <v>7</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="38">
-        <v>0</v>
-      </c>
-      <c r="F14" s="38">
-        <v>0</v>
-      </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="37"/>
+        <v>61</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="43">
+        <v>50</v>
+      </c>
+      <c r="F14" s="43">
+        <v>0</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="43"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="42"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="42">
         <v>8</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="38">
+        <v>0</v>
+      </c>
+      <c r="F15" s="38">
+        <v>0</v>
+      </c>
+      <c r="G15" s="39"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="37"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>9</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C16" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D16" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E16" s="35">
         <v>50</v>
       </c>
-      <c r="F15" s="35">
-        <v>0</v>
-      </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="16"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
+      <c r="F16" s="35">
+        <v>0</v>
+      </c>
       <c r="G16" s="36"/>
       <c r="H16" s="35"/>
       <c r="I16" s="15"/>
       <c r="J16" s="11"/>
       <c r="K16" s="16"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="16"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
@@ -2471,18 +2471,31 @@
       <c r="J21" s="11"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="25" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="3"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="16"/>
+    </row>
+    <row r="26" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2498,7 +2511,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A20"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
